--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F8-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F8-Ldlr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.096137</v>
+        <v>0.9965010000000001</v>
       </c>
       <c r="H2">
-        <v>10.192274</v>
+        <v>1.993002</v>
       </c>
       <c r="I2">
-        <v>0.5636530534423333</v>
+        <v>0.4549725620393161</v>
       </c>
       <c r="J2">
-        <v>0.4744570273450183</v>
+        <v>0.3874032076098121</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N2">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O2">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P2">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q2">
-        <v>14.1911133292285</v>
+        <v>3.723562507137</v>
       </c>
       <c r="R2">
-        <v>56.764453316914</v>
+        <v>14.894250028548</v>
       </c>
       <c r="S2">
-        <v>0.03124901896434794</v>
+        <v>0.02835095367749709</v>
       </c>
       <c r="T2">
-        <v>0.01875796883386339</v>
+        <v>0.01739291148414385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.096137</v>
+        <v>0.9965010000000001</v>
       </c>
       <c r="H3">
-        <v>10.192274</v>
+        <v>1.993002</v>
       </c>
       <c r="I3">
-        <v>0.5636530534423333</v>
+        <v>0.4549725620393161</v>
       </c>
       <c r="J3">
-        <v>0.4744570273450183</v>
+        <v>0.3874032076098121</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N3">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O3">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P3">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q3">
-        <v>79.86957065693932</v>
+        <v>15.617733006238</v>
       </c>
       <c r="R3">
-        <v>479.217423941636</v>
+        <v>93.70639803742802</v>
       </c>
       <c r="S3">
-        <v>0.1758738493753338</v>
+        <v>0.1189123652842388</v>
       </c>
       <c r="T3">
-        <v>0.1583587082703926</v>
+        <v>0.109426596400559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.096137</v>
+        <v>0.9965010000000001</v>
       </c>
       <c r="H4">
-        <v>10.192274</v>
+        <v>1.993002</v>
       </c>
       <c r="I4">
-        <v>0.5636530534423333</v>
+        <v>0.4549725620393161</v>
       </c>
       <c r="J4">
-        <v>0.4744570273450183</v>
+        <v>0.3874032076098121</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N4">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O4">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P4">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q4">
-        <v>56.216598204866</v>
+        <v>22.152293960577</v>
       </c>
       <c r="R4">
-        <v>337.299589229196</v>
+        <v>132.913763763462</v>
       </c>
       <c r="S4">
-        <v>0.1237896916654734</v>
+        <v>0.1686660714632418</v>
       </c>
       <c r="T4">
-        <v>0.1114615716831174</v>
+        <v>0.155211395251948</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.096137</v>
+        <v>0.9965010000000001</v>
       </c>
       <c r="H5">
-        <v>10.192274</v>
+        <v>1.993002</v>
       </c>
       <c r="I5">
-        <v>0.5636530534423333</v>
+        <v>0.4549725620393161</v>
       </c>
       <c r="J5">
-        <v>0.4744570273450183</v>
+        <v>0.3874032076098121</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N5">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O5">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P5">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q5">
-        <v>35.834577888818</v>
+        <v>9.667756741203</v>
       </c>
       <c r="R5">
-        <v>143.338311555272</v>
+        <v>38.671026964812</v>
       </c>
       <c r="S5">
-        <v>0.07890821375661262</v>
+        <v>0.07360964748404369</v>
       </c>
       <c r="T5">
-        <v>0.0473665370446056</v>
+        <v>0.04515848382501507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.096137</v>
+        <v>0.9965010000000001</v>
       </c>
       <c r="H6">
-        <v>10.192274</v>
+        <v>1.993002</v>
       </c>
       <c r="I6">
-        <v>0.5636530534423333</v>
+        <v>0.4549725620393161</v>
       </c>
       <c r="J6">
-        <v>0.4744570273450183</v>
+        <v>0.3874032076098121</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N6">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O6">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P6">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q6">
-        <v>10.699028767143</v>
+        <v>2.668845254383</v>
       </c>
       <c r="R6">
-        <v>64.19417260285799</v>
+        <v>16.013071526298</v>
       </c>
       <c r="S6">
-        <v>0.02355940264080266</v>
+        <v>0.02032040768333917</v>
       </c>
       <c r="T6">
-        <v>0.0212131398901583</v>
+        <v>0.01869942663191058</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.096137</v>
+        <v>0.9965010000000001</v>
       </c>
       <c r="H7">
-        <v>10.192274</v>
+        <v>1.993002</v>
       </c>
       <c r="I7">
-        <v>0.5636530534423333</v>
+        <v>0.4549725620393161</v>
       </c>
       <c r="J7">
-        <v>0.4744570273450183</v>
+        <v>0.3874032076098121</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N7">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O7">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P7">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q7">
-        <v>59.16080642099932</v>
+        <v>5.925074369379001</v>
       </c>
       <c r="R7">
-        <v>354.964838525996</v>
+        <v>35.550446216274</v>
       </c>
       <c r="S7">
-        <v>0.1302728770397629</v>
+        <v>0.04511311644695558</v>
       </c>
       <c r="T7">
-        <v>0.117299101622881</v>
+        <v>0.04151439401623563</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.054014</v>
       </c>
       <c r="I8">
-        <v>0.03885938240873872</v>
+        <v>0.1604104260826323</v>
       </c>
       <c r="J8">
-        <v>0.04906504173848075</v>
+        <v>0.2048810811357181</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N8">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O8">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P8">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q8">
-        <v>0.9783640775090001</v>
+        <v>1.312822570306</v>
       </c>
       <c r="R8">
-        <v>5.870184465054001</v>
+        <v>7.876935421836</v>
       </c>
       <c r="S8">
-        <v>0.002154370619333051</v>
+        <v>0.00999574246603312</v>
       </c>
       <c r="T8">
-        <v>0.00193981850982967</v>
+        <v>0.009198371203364772</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.054014</v>
       </c>
       <c r="I9">
-        <v>0.03885938240873872</v>
+        <v>0.1604104260826323</v>
       </c>
       <c r="J9">
-        <v>0.04906504173848075</v>
+        <v>0.2048810811357181</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N9">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O9">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P9">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q9">
-        <v>5.506369867110666</v>
+        <v>5.506369867110667</v>
       </c>
       <c r="R9">
-        <v>49.557328803996</v>
+        <v>49.55732880399601</v>
       </c>
       <c r="S9">
-        <v>0.01212509916664937</v>
+        <v>0.04192512861927272</v>
       </c>
       <c r="T9">
-        <v>0.01637635482905087</v>
+        <v>0.05787107317430629</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.054014</v>
       </c>
       <c r="I10">
-        <v>0.03885938240873872</v>
+        <v>0.1604104260826323</v>
       </c>
       <c r="J10">
-        <v>0.04906504173848075</v>
+        <v>0.2048810811357181</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N10">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O10">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P10">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q10">
-        <v>3.875686069684</v>
+        <v>7.810270793025999</v>
       </c>
       <c r="R10">
-        <v>34.881174627156</v>
+        <v>70.292437137234</v>
       </c>
       <c r="S10">
-        <v>0.00853431190926855</v>
+        <v>0.05946687481071513</v>
       </c>
       <c r="T10">
-        <v>0.01152657954603745</v>
+        <v>0.08208470616441262</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.054014</v>
       </c>
       <c r="I11">
-        <v>0.03885938240873872</v>
+        <v>0.1604104260826323</v>
       </c>
       <c r="J11">
-        <v>0.04906504173848075</v>
+        <v>0.2048810811357181</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N11">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O11">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P11">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q11">
-        <v>2.470508333332</v>
+        <v>3.408576928614</v>
       </c>
       <c r="R11">
-        <v>14.823049999992</v>
+        <v>20.451461571684</v>
       </c>
       <c r="S11">
-        <v>0.005440091976495288</v>
+        <v>0.02595267473665248</v>
       </c>
       <c r="T11">
-        <v>0.004898317409493989</v>
+        <v>0.0238824016083975</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.054014</v>
       </c>
       <c r="I12">
-        <v>0.03885938240873872</v>
+        <v>0.1604104260826323</v>
       </c>
       <c r="J12">
-        <v>0.04906504173848075</v>
+        <v>0.2048810811357181</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N12">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O12">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P12">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q12">
-        <v>0.7376126993819999</v>
+        <v>0.9409591701206667</v>
       </c>
       <c r="R12">
-        <v>6.638514294438</v>
+        <v>8.468632531086</v>
       </c>
       <c r="S12">
-        <v>0.001624232905240641</v>
+        <v>0.007164399628950716</v>
       </c>
       <c r="T12">
-        <v>0.002193715203122023</v>
+        <v>0.009889331501928547</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.054014</v>
       </c>
       <c r="I13">
-        <v>0.03885938240873872</v>
+        <v>0.1604104260826323</v>
       </c>
       <c r="J13">
-        <v>0.04906504173848075</v>
+        <v>0.2048810811357181</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N13">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O13">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P13">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q13">
-        <v>4.078665743550666</v>
+        <v>2.089013236102</v>
       </c>
       <c r="R13">
-        <v>36.707991691956</v>
+        <v>18.801119124918</v>
       </c>
       <c r="S13">
-        <v>0.008981275831751822</v>
+        <v>0.01590560582100818</v>
       </c>
       <c r="T13">
-        <v>0.01213025624094675</v>
+        <v>0.02195519748330839</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1440186666666667</v>
+        <v>0.115181</v>
       </c>
       <c r="H14">
-        <v>0.432056</v>
+        <v>0.345543</v>
       </c>
       <c r="I14">
-        <v>0.01592903825375186</v>
+        <v>0.05258820078278944</v>
       </c>
       <c r="J14">
-        <v>0.02011248965702642</v>
+        <v>0.06716725149654505</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N14">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O14">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P14">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q14">
-        <v>0.4010459727026667</v>
+        <v>0.430389586297</v>
       </c>
       <c r="R14">
-        <v>2.406275836216</v>
+        <v>2.582337517782</v>
       </c>
       <c r="S14">
-        <v>0.0008831085282610674</v>
+        <v>0.003276957269012065</v>
       </c>
       <c r="T14">
-        <v>0.0007951604305853317</v>
+        <v>0.003015550818797732</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1440186666666667</v>
+        <v>0.115181</v>
       </c>
       <c r="H15">
-        <v>0.432056</v>
+        <v>0.345543</v>
       </c>
       <c r="I15">
-        <v>0.01592903825375186</v>
+        <v>0.05258820078278944</v>
       </c>
       <c r="J15">
-        <v>0.02011248965702642</v>
+        <v>0.06716725149654505</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N15">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O15">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P15">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q15">
-        <v>2.257142826664889</v>
+        <v>1.805182438744667</v>
       </c>
       <c r="R15">
-        <v>20.314285439984</v>
+        <v>16.246641948702</v>
       </c>
       <c r="S15">
-        <v>0.00497025831302607</v>
+        <v>0.01374453728175276</v>
       </c>
       <c r="T15">
-        <v>0.006712911177669749</v>
+        <v>0.0189721808608513</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1440186666666667</v>
+        <v>0.115181</v>
       </c>
       <c r="H16">
-        <v>0.432056</v>
+        <v>0.345543</v>
       </c>
       <c r="I16">
-        <v>0.01592903825375186</v>
+        <v>0.05258820078278944</v>
       </c>
       <c r="J16">
-        <v>0.02011248965702642</v>
+        <v>0.06716725149654505</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N16">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O16">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P16">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q16">
-        <v>1.588701308069333</v>
+        <v>2.560482498937</v>
       </c>
       <c r="R16">
-        <v>14.298311772624</v>
+        <v>23.044342490433</v>
       </c>
       <c r="S16">
-        <v>0.003498341261378817</v>
+        <v>0.01949534097528016</v>
       </c>
       <c r="T16">
-        <v>0.004724916227244379</v>
+        <v>0.02691026459057434</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1440186666666667</v>
+        <v>0.115181</v>
       </c>
       <c r="H17">
-        <v>0.432056</v>
+        <v>0.345543</v>
       </c>
       <c r="I17">
-        <v>0.01592903825375186</v>
+        <v>0.05258820078278944</v>
       </c>
       <c r="J17">
-        <v>0.02011248965702642</v>
+        <v>0.06716725149654505</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N17">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O17">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P17">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q17">
-        <v>1.012698074661333</v>
+        <v>1.117451853243</v>
       </c>
       <c r="R17">
-        <v>6.076188447968001</v>
+        <v>6.704711119458</v>
       </c>
       <c r="S17">
-        <v>0.002229974534490669</v>
+        <v>0.008508203009188788</v>
       </c>
       <c r="T17">
-        <v>0.002007893089348277</v>
+        <v>0.007829494389040846</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1440186666666667</v>
+        <v>0.115181</v>
       </c>
       <c r="H18">
-        <v>0.432056</v>
+        <v>0.345543</v>
       </c>
       <c r="I18">
-        <v>0.01592903825375186</v>
+        <v>0.05258820078278944</v>
       </c>
       <c r="J18">
-        <v>0.02011248965702642</v>
+        <v>0.06716725149654505</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N18">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O18">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P18">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q18">
-        <v>0.302358405528</v>
+        <v>0.3084796354896666</v>
       </c>
       <c r="R18">
-        <v>2.721225649752</v>
+        <v>2.776316719407</v>
       </c>
       <c r="S18">
-        <v>0.0006657972020358842</v>
+        <v>0.002348743129585107</v>
       </c>
       <c r="T18">
-        <v>0.0008992364577700949</v>
+        <v>0.00324207199825704</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1440186666666667</v>
+        <v>0.115181</v>
       </c>
       <c r="H19">
-        <v>0.432056</v>
+        <v>0.345543</v>
       </c>
       <c r="I19">
-        <v>0.01592903825375186</v>
+        <v>0.05258820078278944</v>
       </c>
       <c r="J19">
-        <v>0.02011248965702642</v>
+        <v>0.06716725149654505</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N19">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O19">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P19">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q19">
-        <v>1.671905692424889</v>
+        <v>0.684852289099</v>
       </c>
       <c r="R19">
-        <v>15.047151231824</v>
+        <v>6.163670601891</v>
       </c>
       <c r="S19">
-        <v>0.003681558414559356</v>
+        <v>0.005214419117970569</v>
       </c>
       <c r="T19">
-        <v>0.004972372274408586</v>
+        <v>0.007197688839023797</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.545685</v>
+        <v>0.4297155</v>
       </c>
       <c r="H20">
-        <v>1.09137</v>
+        <v>0.8594310000000001</v>
       </c>
       <c r="I20">
-        <v>0.06035493481978205</v>
+        <v>0.1961952491598159</v>
       </c>
       <c r="J20">
-        <v>0.05080398799458616</v>
+        <v>0.1670576979447629</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N20">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O20">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P20">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q20">
-        <v>1.5195583786425</v>
+        <v>1.6056908367735</v>
       </c>
       <c r="R20">
-        <v>6.078233514570001</v>
+        <v>6.422763347094</v>
       </c>
       <c r="S20">
-        <v>0.003346087617652392</v>
+        <v>0.01222562168527929</v>
       </c>
       <c r="T20">
-        <v>0.002008568887199607</v>
+        <v>0.007500247019184745</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.545685</v>
+        <v>0.4297155</v>
       </c>
       <c r="H21">
-        <v>1.09137</v>
+        <v>0.8594310000000001</v>
       </c>
       <c r="I21">
-        <v>0.06035493481978205</v>
+        <v>0.1961952491598159</v>
       </c>
       <c r="J21">
-        <v>0.05080398799458616</v>
+        <v>0.1670576979447629</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N21">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O21">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P21">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q21">
-        <v>8.552287088029999</v>
+        <v>6.734746826789001</v>
       </c>
       <c r="R21">
-        <v>51.31372252817999</v>
+        <v>40.40848096073401</v>
       </c>
       <c r="S21">
-        <v>0.01883224911268653</v>
+        <v>0.05127790790405561</v>
       </c>
       <c r="T21">
-        <v>0.016956759938465</v>
+        <v>0.04718741334485808</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.545685</v>
+        <v>0.4297155</v>
       </c>
       <c r="H22">
-        <v>1.09137</v>
+        <v>0.8594310000000001</v>
       </c>
       <c r="I22">
-        <v>0.06035493481978205</v>
+        <v>0.1961952491598159</v>
       </c>
       <c r="J22">
-        <v>0.05080398799458616</v>
+        <v>0.1670576979447629</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N22">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O22">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P22">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q22">
-        <v>6.01957019433</v>
+        <v>9.5526086530935</v>
       </c>
       <c r="R22">
-        <v>36.11742116598</v>
+        <v>57.315651918561</v>
       </c>
       <c r="S22">
-        <v>0.01325517306471036</v>
+        <v>0.07273291771093324</v>
       </c>
       <c r="T22">
-        <v>0.01193510059558876</v>
+        <v>0.06693093365324114</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.545685</v>
+        <v>0.4297155</v>
       </c>
       <c r="H23">
-        <v>1.09137</v>
+        <v>0.8594310000000001</v>
       </c>
       <c r="I23">
-        <v>0.06035493481978205</v>
+        <v>0.1961952491598159</v>
       </c>
       <c r="J23">
-        <v>0.05080398799458616</v>
+        <v>0.1670576979447629</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N23">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O23">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P23">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q23">
-        <v>3.83710085409</v>
+        <v>4.1689721554965</v>
       </c>
       <c r="R23">
-        <v>15.34840341636</v>
+        <v>16.675888621986</v>
       </c>
       <c r="S23">
-        <v>0.00844934675495913</v>
+        <v>0.03174227268555634</v>
       </c>
       <c r="T23">
-        <v>0.005071921882631022</v>
+        <v>0.01947343801572529</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.545685</v>
+        <v>0.4297155</v>
       </c>
       <c r="H24">
-        <v>1.09137</v>
+        <v>0.8594310000000001</v>
       </c>
       <c r="I24">
-        <v>0.06035493481978205</v>
+        <v>0.1961952491598159</v>
       </c>
       <c r="J24">
-        <v>0.05080398799458616</v>
+        <v>0.1670576979447629</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N24">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O24">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P24">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q24">
-        <v>1.145632370715</v>
+        <v>1.1508710707865</v>
       </c>
       <c r="R24">
-        <v>6.873794224289999</v>
+        <v>6.905226424719</v>
       </c>
       <c r="S24">
-        <v>0.002522697609983091</v>
+        <v>0.008762654676563229</v>
       </c>
       <c r="T24">
-        <v>0.002271464099368018</v>
+        <v>0.00806364816979087</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.545685</v>
+        <v>0.4297155</v>
       </c>
       <c r="H25">
-        <v>1.09137</v>
+        <v>0.8594310000000001</v>
       </c>
       <c r="I25">
-        <v>0.06035493481978205</v>
+        <v>0.1961952491598159</v>
       </c>
       <c r="J25">
-        <v>0.05080398799458616</v>
+        <v>0.1670576979447629</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N25">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O25">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P25">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q25">
-        <v>6.334830608329999</v>
+        <v>2.5550363674245</v>
       </c>
       <c r="R25">
-        <v>38.00898364998</v>
+        <v>15.330218204547</v>
       </c>
       <c r="S25">
-        <v>0.01394938065979055</v>
+        <v>0.01945387449742824</v>
       </c>
       <c r="T25">
-        <v>0.01256017259133376</v>
+        <v>0.01790201774196283</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.756382333333333</v>
+        <v>0.1600013333333334</v>
       </c>
       <c r="H26">
-        <v>8.269147</v>
+        <v>0.480004</v>
       </c>
       <c r="I26">
-        <v>0.3048668665378966</v>
+        <v>0.07305182489166924</v>
       </c>
       <c r="J26">
-        <v>0.3849342064684463</v>
+        <v>0.09330401538259382</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N26">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O26">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P26">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q26">
-        <v>7.675644134177834</v>
+        <v>0.5978669021826668</v>
       </c>
       <c r="R26">
-        <v>46.05386480506701</v>
+        <v>3.587201413096</v>
       </c>
       <c r="S26">
-        <v>0.01690186975101473</v>
+        <v>0.004552118251432868</v>
       </c>
       <c r="T26">
-        <v>0.01521862556958682</v>
+        <v>0.004188990820899821</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.756382333333333</v>
+        <v>0.1600013333333334</v>
       </c>
       <c r="H27">
-        <v>8.269147</v>
+        <v>0.480004</v>
       </c>
       <c r="I27">
-        <v>0.3048668665378966</v>
+        <v>0.07305182489166924</v>
       </c>
       <c r="J27">
-        <v>0.3849342064684463</v>
+        <v>0.09330401538259382</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N27">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O27">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P27">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q27">
-        <v>43.19959874110644</v>
+        <v>2.507632310095112</v>
       </c>
       <c r="R27">
-        <v>388.796388669958</v>
+        <v>22.568690790856</v>
       </c>
       <c r="S27">
-        <v>0.0951260869386945</v>
+        <v>0.01909294320356787</v>
       </c>
       <c r="T27">
-        <v>0.1284788298880105</v>
+        <v>0.02635481749574457</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.756382333333333</v>
+        <v>0.1600013333333334</v>
       </c>
       <c r="H28">
-        <v>8.269147</v>
+        <v>0.480004</v>
       </c>
       <c r="I28">
-        <v>0.3048668665378966</v>
+        <v>0.07305182489166924</v>
       </c>
       <c r="J28">
-        <v>0.3849342064684463</v>
+        <v>0.09330401538259382</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N28">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O28">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P28">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q28">
-        <v>30.40625441034867</v>
+        <v>3.556841960102667</v>
       </c>
       <c r="R28">
-        <v>273.656289693138</v>
+        <v>32.011577640924</v>
       </c>
       <c r="S28">
-        <v>0.06695497376846257</v>
+        <v>0.02708155468204645</v>
       </c>
       <c r="T28">
-        <v>0.09043046930437067</v>
+        <v>0.03738184435666198</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.756382333333333</v>
+        <v>0.1600013333333334</v>
       </c>
       <c r="H29">
-        <v>8.269147</v>
+        <v>0.480004</v>
       </c>
       <c r="I29">
-        <v>0.3048668665378966</v>
+        <v>0.07305182489166924</v>
       </c>
       <c r="J29">
-        <v>0.3849342064684463</v>
+        <v>0.09330401538259382</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N29">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O29">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P29">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q29">
-        <v>19.38209224265267</v>
+        <v>1.552285415604</v>
       </c>
       <c r="R29">
-        <v>116.292553455916</v>
+        <v>9.313712493624001</v>
       </c>
       <c r="S29">
-        <v>0.0426796230858035</v>
+        <v>0.01181899641208954</v>
       </c>
       <c r="T29">
-        <v>0.03842919231790564</v>
+        <v>0.01087618219647674</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.756382333333333</v>
+        <v>0.1600013333333334</v>
       </c>
       <c r="H30">
-        <v>8.269147</v>
+        <v>0.480004</v>
       </c>
       <c r="I30">
-        <v>0.3048668665378966</v>
+        <v>0.07305182489166924</v>
       </c>
       <c r="J30">
-        <v>0.3849342064684463</v>
+        <v>0.09330401538259382</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N30">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O30">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P30">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q30">
-        <v>5.786856569510999</v>
+        <v>0.4285181842884445</v>
       </c>
       <c r="R30">
-        <v>52.081709125599</v>
+        <v>3.856663658596</v>
       </c>
       <c r="S30">
-        <v>0.01274273458955188</v>
+        <v>0.003262708540394017</v>
       </c>
       <c r="T30">
-        <v>0.01721054320981587</v>
+        <v>0.004503658090169306</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.756382333333333</v>
+        <v>0.1600013333333334</v>
       </c>
       <c r="H31">
-        <v>8.269147</v>
+        <v>0.480004</v>
       </c>
       <c r="I31">
-        <v>0.3048668665378966</v>
+        <v>0.07305182489166924</v>
       </c>
       <c r="J31">
-        <v>0.3849342064684463</v>
+        <v>0.09330401538259382</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N31">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O31">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P31">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q31">
-        <v>31.99870836372644</v>
+        <v>0.9513485678386669</v>
       </c>
       <c r="R31">
-        <v>287.988375273538</v>
+        <v>8.562137110548001</v>
       </c>
       <c r="S31">
-        <v>0.07046157840436948</v>
+        <v>0.007243503802138504</v>
       </c>
       <c r="T31">
-        <v>0.09516654617875676</v>
+        <v>0.009998522422641407</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.1477046666666667</v>
+        <v>0.1375073333333333</v>
       </c>
       <c r="H32">
-        <v>0.443114</v>
+        <v>0.412522</v>
       </c>
       <c r="I32">
-        <v>0.01633672453749746</v>
+        <v>0.0627817370437771</v>
       </c>
       <c r="J32">
-        <v>0.02062724679644214</v>
+        <v>0.080186746430568</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.7846805</v>
+        <v>3.736637</v>
       </c>
       <c r="N32">
-        <v>5.569361000000001</v>
+        <v>7.473274</v>
       </c>
       <c r="O32">
-        <v>0.05544016620420028</v>
+        <v>0.06231354600906058</v>
       </c>
       <c r="P32">
-        <v>0.03953565392176785</v>
+        <v>0.04489614732788115</v>
       </c>
       <c r="Q32">
-        <v>0.4113103050256667</v>
+        <v>0.5138149895046668</v>
       </c>
       <c r="R32">
-        <v>2.467861830154</v>
+        <v>3.082889937028</v>
       </c>
       <c r="S32">
-        <v>0.0009057107235910963</v>
+        <v>0.003912152659806147</v>
       </c>
       <c r="T32">
-        <v>0.0008155116907030308</v>
+        <v>0.003600075981490229</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.1477046666666667</v>
+        <v>0.1375073333333333</v>
       </c>
       <c r="H33">
-        <v>0.443114</v>
+        <v>0.412522</v>
       </c>
       <c r="I33">
-        <v>0.01633672453749746</v>
+        <v>0.0627817370437771</v>
       </c>
       <c r="J33">
-        <v>0.02062724679644214</v>
+        <v>0.080186746430568</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>15.67257133333333</v>
+        <v>15.67257133333334</v>
       </c>
       <c r="N33">
-        <v>47.017714</v>
+        <v>47.01771400000001</v>
       </c>
       <c r="O33">
-        <v>0.3120250095359897</v>
+        <v>0.2613616187122139</v>
       </c>
       <c r="P33">
-        <v>0.3337682848888155</v>
+        <v>0.2824617717434394</v>
       </c>
       <c r="Q33">
-        <v>2.314911924599556</v>
+        <v>2.155093490523111</v>
       </c>
       <c r="R33">
-        <v>20.834207321396</v>
+        <v>19.395841414708</v>
       </c>
       <c r="S33">
-        <v>0.005097466629599483</v>
+        <v>0.01640873641932614</v>
       </c>
       <c r="T33">
-        <v>0.006884720785226807</v>
+        <v>0.02264969046712015</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.1477046666666667</v>
+        <v>0.1375073333333333</v>
       </c>
       <c r="H34">
-        <v>0.443114</v>
+        <v>0.412522</v>
       </c>
       <c r="I34">
-        <v>0.01633672453749746</v>
+        <v>0.0627817370437771</v>
       </c>
       <c r="J34">
-        <v>0.02062724679644214</v>
+        <v>0.080186746430568</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>11.031218</v>
+        <v>22.230077</v>
       </c>
       <c r="N34">
-        <v>33.093654</v>
+        <v>66.690231</v>
       </c>
       <c r="O34">
-        <v>0.2196203691428032</v>
+        <v>0.3707170179828705</v>
       </c>
       <c r="P34">
-        <v>0.2349244826382646</v>
+        <v>0.4006456121248099</v>
       </c>
       <c r="Q34">
-        <v>1.629362377617334</v>
+        <v>3.056798608064667</v>
       </c>
       <c r="R34">
-        <v>14.664261398556</v>
+        <v>27.511187472582</v>
       </c>
       <c r="S34">
-        <v>0.003587877473509484</v>
+        <v>0.02327425834065376</v>
       </c>
       <c r="T34">
-        <v>0.00484584528190597</v>
+        <v>0.03212646810797183</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.1477046666666667</v>
+        <v>0.1375073333333333</v>
       </c>
       <c r="H35">
-        <v>0.443114</v>
+        <v>0.412522</v>
       </c>
       <c r="I35">
-        <v>0.01633672453749746</v>
+        <v>0.0627817370437771</v>
       </c>
       <c r="J35">
-        <v>0.02062724679644214</v>
+        <v>0.080186746430568</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.031714000000001</v>
+        <v>9.701703</v>
       </c>
       <c r="N35">
-        <v>14.063428</v>
+        <v>19.403406</v>
       </c>
       <c r="O35">
-        <v>0.1399942983981114</v>
+        <v>0.1617892014281133</v>
       </c>
       <c r="P35">
-        <v>0.09983314465729547</v>
+        <v>0.116567139708606</v>
       </c>
       <c r="Q35">
-        <v>1.038616972465334</v>
+        <v>1.334055308322</v>
       </c>
       <c r="R35">
-        <v>6.231701834792001</v>
+        <v>8.004331849932001</v>
       </c>
       <c r="S35">
-        <v>0.002287048289750168</v>
+        <v>0.0101574071005825</v>
       </c>
       <c r="T35">
-        <v>0.002059282913310942</v>
+        <v>0.009347139673950587</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.1477046666666667</v>
+        <v>0.1375073333333333</v>
       </c>
       <c r="H36">
-        <v>0.443114</v>
+        <v>0.412522</v>
       </c>
       <c r="I36">
-        <v>0.01633672453749746</v>
+        <v>0.0627817370437771</v>
       </c>
       <c r="J36">
-        <v>0.02062724679644214</v>
+        <v>0.080186746430568</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.099439</v>
+        <v>2.678216333333333</v>
       </c>
       <c r="N36">
-        <v>6.298317</v>
+        <v>8.034649</v>
       </c>
       <c r="O36">
-        <v>0.04179770249965122</v>
+        <v>0.04466292998473873</v>
       </c>
       <c r="P36">
-        <v>0.04471035029002197</v>
+        <v>0.04826864172674693</v>
       </c>
       <c r="Q36">
-        <v>0.310096937682</v>
+        <v>0.3682743860864445</v>
       </c>
       <c r="R36">
-        <v>2.790872439138</v>
+        <v>3.314469474778</v>
       </c>
       <c r="S36">
-        <v>0.0006828375520370712</v>
+        <v>0.002804016325906494</v>
       </c>
       <c r="T36">
-        <v>0.0009222514297876614</v>
+        <v>0.003870505334690591</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.1477046666666667</v>
+        <v>0.1375073333333333</v>
       </c>
       <c r="H37">
-        <v>0.443114</v>
+        <v>0.412522</v>
       </c>
       <c r="I37">
-        <v>0.01633672453749746</v>
+        <v>0.0627817370437771</v>
       </c>
       <c r="J37">
-        <v>0.02062724679644214</v>
+        <v>0.080186746430568</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.60895133333333</v>
+        <v>5.945879000000001</v>
       </c>
       <c r="N37">
-        <v>34.826854</v>
+        <v>17.837637</v>
       </c>
       <c r="O37">
-        <v>0.2311224542192443</v>
+        <v>0.09915568588300312</v>
       </c>
       <c r="P37">
-        <v>0.2472280836038346</v>
+        <v>0.1071606873685167</v>
       </c>
       <c r="Q37">
-        <v>1.714696287039555</v>
+        <v>0.8176019656126668</v>
       </c>
       <c r="R37">
-        <v>15.432266583356</v>
+        <v>7.358417690514</v>
       </c>
       <c r="S37">
-        <v>0.003775783869010162</v>
+        <v>0.006225166197502063</v>
       </c>
       <c r="T37">
-        <v>0.005099634695507726</v>
+        <v>0.008592866865344616</v>
       </c>
     </row>
   </sheetData>
